--- a/run/output/iecorrect/iecorrect-multiple-ids.xlsx
+++ b/run/output/iecorrect/iecorrect-multiple-ids.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wb501238\Documents\GitHub\iefieldkit\run\output\iecorrect\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6CD3484-5146-4413-8A73-5C2F6BBF7414}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D353F423-AE6F-43D5-8058-05BF78D67DF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
   <si>
     <t>make</t>
   </si>
@@ -539,7 +539,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -580,7 +580,9 @@
       <c r="D2" s="1">
         <v>2</v>
       </c>
-      <c r="E2" s="1"/>
+      <c r="E2" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>

--- a/run/output/iecorrect/iecorrect-multiple-ids.xlsx
+++ b/run/output/iecorrect/iecorrect-multiple-ids.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -10,19 +10,19 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D353F423-AE6F-43D5-8058-05BF78D67DF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="string" sheetId="1" r:id="rId1"/>
     <sheet name="numeric" sheetId="2" r:id="rId2"/>
     <sheet name="drop" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" fullCalcOnLoad="true"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="153" uniqueCount="34">
   <si>
     <t>make</t>
   </si>
@@ -106,12 +106,30 @@
   </si>
   <si>
     <t>bar</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>n_changes</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>date_last_changed</t>
+  </si>
+  <si>
+    <t>11 Dec 2022</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -147,7 +165,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -166,7 +184,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -317,7 +335,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -341,9 +359,9 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="5400000" scaled="false"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -367,7 +385,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="5400000" scaled="false"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -402,7 +420,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="false">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -420,7 +438,7 @@
             <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -445,7 +463,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="5400000" scaled="false"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -461,8 +479,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
@@ -470,49 +488,65 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" s="1">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="1">
-        <v>15</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7">
+    <row r="3">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -527,6 +561,18 @@
       </c>
       <c r="E3" t="s">
         <v>26</v>
+      </c>
+      <c r="F3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -535,21 +581,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="true" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C1" t="s">
         <v>9</v>
@@ -561,30 +607,46 @@
         <v>11</v>
       </c>
       <c r="F1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G1" t="s">
-        <v>13</v>
+        <v>18</v>
+      </c>
+      <c r="H1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1" t="s">
+    <row r="2">
+      <c r="A2" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="1">
-        <v>2</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="D2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
+      <c r="F2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" s="1">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -592,14 +654,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -616,7 +678,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>

--- a/run/output/iecorrect/iecorrect-multiple-ids.xlsx
+++ b/run/output/iecorrect/iecorrect-multiple-ids.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="153" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="279" uniqueCount="35">
   <si>
     <t>make</t>
   </si>
@@ -124,6 +124,9 @@
   </si>
   <si>
     <t>11 Dec 2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9 Jan 2023</t>
   </si>
 </sst>
 </file>
@@ -540,7 +543,7 @@
         <v>29</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I2" s="1">
         <v>1</v>
@@ -569,7 +572,7 @@
         <v>29</v>
       </c>
       <c r="H3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I3" s="1">
         <v>1</v>
@@ -642,7 +645,7 @@
         <v>29</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I2" s="1">
         <v>1</v>
